--- a/Sales Targets.xlsx
+++ b/Sales Targets.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmunroe/Documents/Project Maestro Demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirkmunroe/Documents/Prep Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFA20C60-6045-F647-9A1A-2D313217B565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -93,8 +104,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -105,6 +116,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -372,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -388,40 +402,40 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>41640</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>41671</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>41699</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>41730</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>41760</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>41791</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>41821</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="2">
         <v>41852</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="2">
         <v>41883</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="2">
         <v>41913</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="2">
         <v>41944</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="2">
         <v>41974</v>
       </c>
     </row>
@@ -429,50 +443,50 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>50000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <f>B2*1.05</f>
         <v>52500</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <f t="shared" ref="D2:M2" si="0">C2*1.05</f>
         <v>55125</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f t="shared" si="0"/>
         <v>57881.25</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <f t="shared" si="0"/>
         <v>60775.3125</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f t="shared" si="0"/>
         <v>63814.078125</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <f t="shared" si="0"/>
         <v>67004.782031249997</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <f t="shared" si="0"/>
         <v>70355.021132812501</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <f t="shared" si="0"/>
         <v>73872.772189453128</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <f t="shared" si="0"/>
         <v>77566.41079892579</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <f t="shared" si="0"/>
         <v>81444.73133887208</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <f t="shared" si="0"/>
         <v>85516.967905815691</v>
       </c>
@@ -481,50 +495,50 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:M6" si="1">B3*1.05</f>
         <v>1050</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f t="shared" si="1"/>
         <v>1102.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f t="shared" si="1"/>
         <v>1157.625</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f t="shared" si="1"/>
         <v>1215.5062500000001</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f t="shared" si="1"/>
         <v>1276.2815625000003</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <f t="shared" si="1"/>
         <v>1340.0956406250004</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <f t="shared" si="1"/>
         <v>1407.1004226562504</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <f t="shared" si="1"/>
         <v>1477.4554437890631</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <f t="shared" si="1"/>
         <v>1551.3282159785163</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <f t="shared" si="1"/>
         <v>1628.8946267774422</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <f t="shared" si="1"/>
         <v>1710.3393581163143</v>
       </c>
@@ -533,50 +547,50 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
         <v>1102.5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f t="shared" si="1"/>
         <v>1157.625</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f t="shared" si="1"/>
         <v>1215.5062500000001</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f t="shared" si="1"/>
         <v>1276.2815625000003</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>1340.0956406250004</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f t="shared" si="1"/>
         <v>1407.1004226562504</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>1477.4554437890631</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f t="shared" si="1"/>
         <v>1551.3282159785163</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <f t="shared" si="1"/>
         <v>1628.8946267774422</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>1710.3393581163143</v>
       </c>
@@ -585,50 +599,50 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>500</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>551.25</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>578.8125</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>607.75312500000007</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>638.14078125000015</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>670.04782031250022</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
         <v>703.55021132812522</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>738.72772189453156</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
         <v>775.66410798925813</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>814.44731338872111</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>855.16967905815716</v>
       </c>
@@ -637,50 +651,50 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>1102.5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>1157.625</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>1215.5062500000001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>1276.2815625000003</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>1340.0956406250004</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
         <v>1407.1004226562504</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>1477.4554437890631</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
         <v>1551.3282159785163</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f t="shared" si="1"/>
         <v>1628.8946267774422</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
         <v>1710.3393581163143</v>
       </c>
